--- a/data/bozze/risposta_modello2_1639139959317.xlsx
+++ b/data/bozze/risposta_modello2_1639139959317.xlsx
@@ -53,8 +53,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -151,7 +152,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -236,13 +237,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G221"/>
+  <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.86"/>
